--- a/pred_ohlcv/54_21/2019-10-30 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 OCN ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-2813921.66615327</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1571497.565222501</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1571497.565222501</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1702347.565222501</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>115025.9384774991</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>115058.9384774991</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>114763.6784774991</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>114763.6784774991</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>384132.419477499</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-50669.84502250096</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-50658.84502250096</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-81015.45982250095</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2179915.891377499</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>8127631.060077499</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>7723286.906777498</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>7723418.906777498</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>5882593.079777498</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>6637980.116077498</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>6638090.116077498</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>6638090.116077498</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6608429.880377498</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6608475.080377498</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6534247.003477498</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>6534247.003477498</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>6534257.003477498</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>6500408.328677498</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>6500408.328677498</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>6500418.328677498</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>6457069.372977498</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>6643457.944377498</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>6643457.944377498</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>5357317.216077497</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>5357317.216077497</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5135691.083979083</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-6590499.096379083</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-7239089.187979084</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-11066535.03697908</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-10601515.54387908</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>94632.1053209143</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>94632.1053209143</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 OCN ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-2813921.66615327</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1571497.565222501</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1571497.565222501</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1702347.565222501</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3693553.427077499</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2179915.891377499</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1636415.090077499</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>2196877.486377499</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1147785.217977499</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>7748352.185877498</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>7722253.512977499</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>8127631.060077499</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>7723286.906777498</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>7723418.906777498</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>5882593.079777498</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>6637980.116077498</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>6637980.116077498</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>6638090.116077498</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>6638090.116077498</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6608429.880377498</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6608475.080377498</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6534247.003477498</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>6534247.003477498</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>6534257.003477498</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>6500408.328677498</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>6500408.328677498</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>6500418.328677498</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>6457069.372977498</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>6643457.944377498</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>6643457.944377498</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>5357317.216077497</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1256776.692679081</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1227824.656879081</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1227824.656879081</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1227824.656879081</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1227824.656879081</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5135691.083979083</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-6590499.096379083</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-9031453.905479085</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-9828291.845479084</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-9803271.845479084</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-9982835.495479085</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-7717127.495479085</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-7847008.808579084</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-7847008.808579084</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-8106122.531979084</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-7239089.187979084</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-9172340.802879084</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-9172140.802879084</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-9700586.818179084</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-11066535.03697908</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-10601515.54387908</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-3969869.932579085</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-3982505.397379085</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1716226.762379086</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>94632.1053209143</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>94632.1053209143</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
